--- a/biology/Botanique/Parc_Tiohtià_ke_Otsira'kéhne/Parc_Tiohtià_ke_Otsira'kéhne.xlsx
+++ b/biology/Botanique/Parc_Tiohtià_ke_Otsira'kéhne/Parc_Tiohtià_ke_Otsira'kéhne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Tiohti%C3%A0:ke_Otsira%27k%C3%A9hne</t>
+          <t>Parc_Tiohtià:ke_Otsira'kéhne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Tiohtià:ke Otsira'kéhne est un espace vert sur la colline d'Outremont du mont Royal à Montréal. Le parc borde les arrondissements d'Outremont et de Côte-des-Neiges-Notre-Dame-de-Grâce et est situé entre le campus principal de l'Université de Montréal et les cimetières de montagne[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Tiohtià:ke Otsira'kéhne est un espace vert sur la colline d'Outremont du mont Royal à Montréal. Le parc borde les arrondissements d'Outremont et de Côte-des-Neiges-Notre-Dame-de-Grâce et est situé entre le campus principal de l'Université de Montréal et les cimetières de montagne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_Tiohti%C3%A0:ke_Otsira%27k%C3%A9hne</t>
+          <t>Parc_Tiohtià:ke_Otsira'kéhne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2017 il porte nom mohawk, qui se prononce « djodjâgué otchira'guéné », choisie par les trois communautés mohawks de la région de Montréal, soit Kahnawake, Kanesatake et Akwesasne. Elle signifie « autour du feu, sur l'île où le groupe se sépare »[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2017 il porte nom mohawk, qui se prononce « djodjâgué otchira'guéné », choisie par les trois communautés mohawks de la région de Montréal, soit Kahnawake, Kanesatake et Akwesasne. Elle signifie « autour du feu, sur l'île où le groupe se sépare »,.
 </t>
         </is>
       </c>
